--- a/Analista.xlsx
+++ b/Analista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B1164-17DF-4F22-9B99-0F5DB3228AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A2F62-D9B5-429D-84F9-F7C2030BD208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F056FF6-400D-441B-B887-90AFAEFC191F}"/>
   </bookViews>
@@ -239,9 +239,6 @@
     <t>Sistema de Produção Vegetal</t>
   </si>
   <si>
-    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO</t>
-  </si>
-  <si>
     <t>Agronomia; Engenharia Agronômica; Engenharia Agrícola; Agroecologia; Biologia; Engenharia Florestal; Produção Agrícola; Ciências Agrárias; Ciências Agrícolas</t>
   </si>
   <si>
@@ -1260,6 +1257,9 @@
   </si>
   <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, nas áreas de nutrição de organismos aquáticos envolvendo: (a) análises de alimentos, processamento de alimentos e fabricação de rações experimentais; (b) apoio à gestão da infraestrutura de pesquisa, zelando pela guarda, conservação, manutenção e limpeza dos equipamentos, instrumentos e materiais utilizados, bem como do local de trabalho; (c) tratamento e descarte de resíduos de materiais provenientes do laboratório.</t>
+  </si>
+  <si>
+    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA ARROZ E FEIJÃO – Alegrete/RS; EMBRAPA ARROZ E FEIJÃO – Balsas/MA; EMBRAPA ARROZ E FEIJÃO – Sinop/MT; EMBRAPA COCAIS – Balsas/MA; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Ouro Preto d´Oeste/RO; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Vilhena/RO; EMBRAPA SOJA – Londrina/PR; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
   </si>
 </sst>
 </file>
@@ -1659,45 +1659,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D87334-E1F4-40A5-B022-6F892144E1C2}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -2184,15 +2184,15 @@
         <v>19</v>
       </c>
       <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
         <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2219,15 +2219,15 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2236,10 +2236,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2254,27 +2254,27 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
         <v>78</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2289,27 +2289,27 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
         <v>84</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2324,24 +2324,24 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
         <v>89</v>
-      </c>
-      <c r="K19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
         <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
@@ -2359,27 +2359,27 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2394,59 +2394,59 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" t="s">
         <v>98</v>
-      </c>
-      <c r="K21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>101</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
         <v>102</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>103</v>
-      </c>
-      <c r="K22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -2464,27 +2464,27 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2499,27 +2499,27 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" t="s">
         <v>112</v>
-      </c>
-      <c r="K24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
         <v>114</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>115</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -2534,27 +2534,27 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" t="s">
         <v>117</v>
-      </c>
-      <c r="K25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>122</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2569,27 +2569,27 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
         <v>123</v>
-      </c>
-      <c r="K26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
         <v>125</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -2604,27 +2604,27 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" t="s">
         <v>128</v>
-      </c>
-      <c r="K27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>132</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2639,27 +2639,27 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
         <v>133</v>
-      </c>
-      <c r="K28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
         <v>135</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>136</v>
-      </c>
-      <c r="E29" t="s">
-        <v>137</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -2674,27 +2674,27 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" t="s">
         <v>138</v>
-      </c>
-      <c r="K29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>140</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>141</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>142</v>
-      </c>
-      <c r="E30" t="s">
-        <v>143</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2709,97 +2709,97 @@
         <v>9</v>
       </c>
       <c r="J30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" t="s">
         <v>144</v>
-      </c>
-      <c r="K30" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>146</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>149</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>150</v>
-      </c>
-      <c r="K31" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
         <v>152</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>153</v>
       </c>
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>154</v>
-      </c>
-      <c r="K32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>156</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>157</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>159</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2814,62 +2814,62 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
         <v>160</v>
-      </c>
-      <c r="K33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>162</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>163</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
         <v>164</v>
       </c>
-      <c r="E34" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>165</v>
-      </c>
-      <c r="K34" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
         <v>167</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>168</v>
-      </c>
-      <c r="E35" t="s">
-        <v>169</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2884,27 +2884,27 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" t="s">
         <v>170</v>
-      </c>
-      <c r="K35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
         <v>172</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>174</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2919,27 +2919,27 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
+        <v>174</v>
+      </c>
+      <c r="K36" t="s">
         <v>175</v>
-      </c>
-      <c r="K36" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
         <v>177</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>178</v>
-      </c>
-      <c r="E37" t="s">
-        <v>179</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2954,132 +2954,132 @@
         <v>5</v>
       </c>
       <c r="J37" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" t="s">
         <v>180</v>
-      </c>
-      <c r="K37" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
         <v>182</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
         <v>183</v>
       </c>
-      <c r="E38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>184</v>
-      </c>
-      <c r="K38" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
         <v>186</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>187</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
         <v>188</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>189</v>
-      </c>
-      <c r="K39" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
         <v>191</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
         <v>192</v>
       </c>
-      <c r="E40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>193</v>
-      </c>
-      <c r="K40" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
         <v>195</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>196</v>
-      </c>
-      <c r="E41" t="s">
-        <v>197</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3094,27 +3094,27 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
+        <v>197</v>
+      </c>
+      <c r="K41" t="s">
         <v>198</v>
-      </c>
-      <c r="K41" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>200</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>201</v>
       </c>
-      <c r="D42" t="s">
-        <v>202</v>
-      </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3129,27 +3129,27 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" t="s">
         <v>203</v>
-      </c>
-      <c r="K42" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s">
         <v>205</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>206</v>
-      </c>
-      <c r="E43" t="s">
-        <v>207</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -3164,27 +3164,27 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" t="s">
         <v>208</v>
-      </c>
-      <c r="K43" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s">
         <v>210</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>211</v>
-      </c>
-      <c r="E44" t="s">
-        <v>212</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -3199,62 +3199,62 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
         <v>214</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
         <v>215</v>
       </c>
-      <c r="E45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>216</v>
-      </c>
-      <c r="K45" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
         <v>218</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>219</v>
-      </c>
-      <c r="E46" t="s">
-        <v>220</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3269,97 +3269,97 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s">
         <v>221</v>
-      </c>
-      <c r="K46" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>223</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>224</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>226</v>
-      </c>
-      <c r="K47" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" t="s">
         <v>228</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
         <v>229</v>
       </c>
-      <c r="E48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>230</v>
-      </c>
-      <c r="K48" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" t="s">
         <v>232</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>233</v>
-      </c>
-      <c r="E49" t="s">
-        <v>234</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3374,62 +3374,62 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
+        <v>234</v>
+      </c>
+      <c r="K49" t="s">
         <v>235</v>
-      </c>
-      <c r="K49" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" t="s">
         <v>237</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>238</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>207</v>
+      </c>
+      <c r="K50" t="s">
         <v>239</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>208</v>
-      </c>
-      <c r="K50" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" t="s">
         <v>241</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>224</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>242</v>
-      </c>
-      <c r="E51" t="s">
-        <v>243</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -3444,45 +3444,45 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
+        <v>243</v>
+      </c>
+      <c r="K51" t="s">
         <v>244</v>
-      </c>
-      <c r="K51" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
         <v>246</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
         <v>247</v>
       </c>
-      <c r="E52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>248</v>
-      </c>
-      <c r="K52" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3493,13 +3493,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3514,27 +3514,27 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>252</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>253</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>254</v>
-      </c>
-      <c r="E54" t="s">
-        <v>255</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -3549,27 +3549,27 @@
         <v>7</v>
       </c>
       <c r="J54" t="s">
+        <v>255</v>
+      </c>
+      <c r="K54" t="s">
         <v>256</v>
-      </c>
-      <c r="K54" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
         <v>258</v>
       </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>259</v>
-      </c>
-      <c r="E55" t="s">
-        <v>260</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -3584,62 +3584,62 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55" t="s">
         <v>261</v>
-      </c>
-      <c r="K55" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" t="s">
         <v>263</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>264</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
         <v>265</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>266</v>
-      </c>
-      <c r="K56" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" t="s">
         <v>268</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>269</v>
-      </c>
-      <c r="E57" t="s">
-        <v>270</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3654,27 +3654,27 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
+        <v>270</v>
+      </c>
+      <c r="K57" t="s">
         <v>271</v>
-      </c>
-      <c r="K57" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" t="s">
         <v>273</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>274</v>
-      </c>
-      <c r="E58" t="s">
-        <v>275</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -3689,10 +3689,10 @@
         <v>7</v>
       </c>
       <c r="J58" t="s">
+        <v>275</v>
+      </c>
+      <c r="K58" t="s">
         <v>276</v>
-      </c>
-      <c r="K58" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3703,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
         <v>278</v>
-      </c>
-      <c r="E59" t="s">
-        <v>279</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -3724,62 +3724,62 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
+        <v>279</v>
+      </c>
+      <c r="K59" t="s">
         <v>280</v>
-      </c>
-      <c r="K59" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" t="s">
         <v>282</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
         <v>283</v>
       </c>
-      <c r="E60" t="s">
-        <v>265</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>284</v>
-      </c>
-      <c r="K60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
         <v>286</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>287</v>
-      </c>
-      <c r="E61" t="s">
-        <v>288</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3794,27 +3794,27 @@
         <v>5</v>
       </c>
       <c r="J61" t="s">
+        <v>288</v>
+      </c>
+      <c r="K61" t="s">
         <v>289</v>
-      </c>
-      <c r="K61" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
         <v>291</v>
       </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>292</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>293</v>
-      </c>
-      <c r="E62" t="s">
-        <v>294</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -3829,27 +3829,27 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
+        <v>294</v>
+      </c>
+      <c r="K62" t="s">
         <v>295</v>
-      </c>
-      <c r="K62" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>297</v>
       </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" t="s">
         <v>298</v>
-      </c>
-      <c r="D63" t="s">
-        <v>298</v>
-      </c>
-      <c r="E63" t="s">
-        <v>299</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3864,27 +3864,27 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
+        <v>299</v>
+      </c>
+      <c r="K63" t="s">
         <v>300</v>
-      </c>
-      <c r="K63" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>302</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>303</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>304</v>
-      </c>
-      <c r="E64" t="s">
-        <v>305</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -3899,27 +3899,27 @@
         <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" t="s">
         <v>307</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65" t="s">
-        <v>308</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3934,27 +3934,27 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" t="s">
         <v>309</v>
-      </c>
-      <c r="K65" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>311</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>312</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>313</v>
-      </c>
-      <c r="E66" t="s">
-        <v>314</v>
       </c>
       <c r="F66">
         <v>38</v>
@@ -3969,27 +3969,27 @@
         <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" t="s">
         <v>316</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>312</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>317</v>
-      </c>
-      <c r="E67" t="s">
-        <v>318</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -4004,97 +4004,97 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
+        <v>318</v>
+      </c>
+      <c r="K67" t="s">
         <v>319</v>
-      </c>
-      <c r="K67" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" t="s">
         <v>321</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>322</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
         <v>323</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" t="s">
-        <v>5</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>324</v>
-      </c>
-      <c r="K68" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" t="s">
         <v>326</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>312</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
         <v>327</v>
       </c>
-      <c r="E69" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" t="s">
-        <v>5</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>328</v>
-      </c>
-      <c r="K69" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" t="s">
         <v>330</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>331</v>
-      </c>
-      <c r="E70" t="s">
-        <v>332</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -4109,62 +4109,62 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
+        <v>332</v>
+      </c>
+      <c r="K70" t="s">
         <v>333</v>
-      </c>
-      <c r="K70" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" t="s">
         <v>335</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>312</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>336</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
         <v>337</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>338</v>
-      </c>
-      <c r="K71" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>340</v>
       </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>341</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>342</v>
-      </c>
-      <c r="E72" t="s">
-        <v>343</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -4179,27 +4179,27 @@
         <v>7</v>
       </c>
       <c r="J72" t="s">
+        <v>343</v>
+      </c>
+      <c r="K72" t="s">
         <v>344</v>
-      </c>
-      <c r="K72" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" t="s">
         <v>346</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>347</v>
-      </c>
-      <c r="E73" t="s">
-        <v>348</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -4214,27 +4214,27 @@
         <v>8</v>
       </c>
       <c r="J73" t="s">
+        <v>348</v>
+      </c>
+      <c r="K73" t="s">
         <v>349</v>
-      </c>
-      <c r="K73" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" t="s">
         <v>351</v>
       </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>341</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>352</v>
-      </c>
-      <c r="E74" t="s">
-        <v>353</v>
       </c>
       <c r="F74">
         <v>5</v>
@@ -4249,27 +4249,27 @@
         <v>7</v>
       </c>
       <c r="J74" t="s">
+        <v>353</v>
+      </c>
+      <c r="K74" t="s">
         <v>354</v>
-      </c>
-      <c r="K74" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" t="s">
         <v>356</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>341</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>357</v>
-      </c>
-      <c r="E75" t="s">
-        <v>358</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -4284,27 +4284,27 @@
         <v>6</v>
       </c>
       <c r="J75" t="s">
+        <v>358</v>
+      </c>
+      <c r="K75" t="s">
         <v>359</v>
-      </c>
-      <c r="K75" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>360</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>340</v>
+      </c>
+      <c r="D76" t="s">
         <v>361</v>
       </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>362</v>
-      </c>
-      <c r="E76" t="s">
-        <v>363</v>
       </c>
       <c r="F76">
         <v>3</v>
@@ -4319,27 +4319,27 @@
         <v>5</v>
       </c>
       <c r="J76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" t="s">
         <v>365</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>341</v>
-      </c>
-      <c r="D77" t="s">
-        <v>366</v>
-      </c>
       <c r="E77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F77">
         <v>7</v>
@@ -4354,27 +4354,27 @@
         <v>10</v>
       </c>
       <c r="J77" t="s">
+        <v>366</v>
+      </c>
+      <c r="K77" t="s">
         <v>367</v>
-      </c>
-      <c r="K77" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>340</v>
+      </c>
+      <c r="D78" t="s">
         <v>369</v>
       </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>341</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>370</v>
-      </c>
-      <c r="E78" t="s">
-        <v>371</v>
       </c>
       <c r="F78">
         <v>22</v>
@@ -4389,27 +4389,27 @@
         <v>33</v>
       </c>
       <c r="J78" t="s">
+        <v>371</v>
+      </c>
+      <c r="K78" t="s">
         <v>372</v>
-      </c>
-      <c r="K78" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>340</v>
+      </c>
+      <c r="D79" t="s">
         <v>374</v>
       </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>375</v>
-      </c>
-      <c r="E79" t="s">
-        <v>376</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -4424,27 +4424,27 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
+        <v>376</v>
+      </c>
+      <c r="K79" t="s">
         <v>377</v>
-      </c>
-      <c r="K79" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" t="s">
         <v>379</v>
       </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>341</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>380</v>
-      </c>
-      <c r="E80" t="s">
-        <v>381</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -4459,24 +4459,24 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
+        <v>381</v>
+      </c>
+      <c r="K80" t="s">
         <v>382</v>
-      </c>
-      <c r="K80" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>340</v>
+      </c>
+      <c r="D81" t="s">
         <v>384</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>341</v>
-      </c>
-      <c r="D81" t="s">
-        <v>385</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -4494,27 +4494,27 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
+        <v>385</v>
+      </c>
+      <c r="K81" t="s">
         <v>386</v>
-      </c>
-      <c r="K81" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>340</v>
+      </c>
+      <c r="D82" t="s">
         <v>388</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>341</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>389</v>
-      </c>
-      <c r="E82" t="s">
-        <v>390</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -4529,10 +4529,10 @@
         <v>10</v>
       </c>
       <c r="J82" t="s">
+        <v>390</v>
+      </c>
+      <c r="K82" t="s">
         <v>391</v>
-      </c>
-      <c r="K82" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Analista.xlsx
+++ b/Analista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A2F62-D9B5-429D-84F9-F7C2030BD208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13040336-7ED8-4402-9219-ACC01D0A2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F056FF6-400D-441B-B887-90AFAEFC191F}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="407">
-  <si>
-    <t>40002042</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="405">
   <si>
     <t>Analista</t>
   </si>
@@ -545,9 +542,6 @@
     <t>EMBRAPA SEDE – Brasília/DF; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA SUÍNOS E AVES – Concórdia/SC</t>
   </si>
   <si>
-    <t>Computação (Análise de Sistemas, Análise de Sistemas e Desenvolvimento de Internet, Ciência da Computação, Sistemas de Informação, Engenharia de Computação, Engenharia da Informação, Engenharia de Software, Informática, Tecnologia da Informação, Ciência de Dados); Análise de Sistemas e Tecnologias da Informação, Gestão da Tecnologia da Informação, Informática, Segurança da Informação, Sistema da Informação, Tecnologia da Informação, Sistemas de Bancos de Dados, Banco de Dados, Banco de Dados e Armazenamento Big Data, Ciência de Dados, Big Data, Gestão de Dados, Processamento de Dados, Sistemas de Banco de Dados; Computação e Informática.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) aplicação de leis e padrões ao gerenciamento de dados; (b) técnicas de análise e modelagem de dados (objeto, relacional) com utilização de ferramentas; (c) gestão e governança de dados; (d) bancos de dados relacionais, não relacionais e data stores; (e) técnicas de integração de dados; (f) processo ETL (extração, transformação e carga); (g) ferramentas de visualização de dados; (h) governança de TI; (i) serviços de TI; (j) gestão e modelagem de processos; (k) gerenciamento de projetos; (l) aquisições e contratações de TI.</t>
   </si>
   <si>
@@ -560,9 +554,6 @@
     <t>EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA ALGODÃO – Campina Grande/PB; EMBRAPA ALIMENTOS E TERRITÓRIOS – Maceió/AL; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA SOLOS – Recife</t>
   </si>
   <si>
-    <t>Computação (Análise de Sistemas, Análise de Sistemas e Desenvolvimento de Internet, Ciência da Computação, Sistemas de Informação, Engenharia de Computação, Engenharia da Informação, Engenharia de Sistemas, Engenharia de Redes, Informática, Tecnologia da Informação, Ciência de Dados, Engenharia Elétrica); Análise de Sistemas e Tecnologias da Informação, Gestão da Tecnologia da Informação, Informática, Segurança da Informação, Sistema da Informação, Tecnologia da Informação, Sistemas de Bancos de Dados, Banco de Dados, Banco de Dados e Armazenamento Big Data, Ciência de Dados, Big Data, Gestão de Dados, Processamento de Dados, Sistemas de Banco de Dados; Computação e Informática.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) identificação, análise, mitigação e tratamento de vulnerabilidades em sistemas computacionais e redes de computadores; (b) planejamento, execução e análise de avaliações de segurança e testes de penetração em ambientes computacionais; (c) coordenação e gerenciamento de projetos de infraestrutura de TI e segurança cibernética, incluindo a gestão, execução e fiscalização de processos de aquisição e gerenciamento de contratos de bens e de serviços relacionadas a esses temas; (d) aplicação e adoção de práticas de governança, gerenciamento de serviços e riscos em TI e segurança cibernética.</t>
   </si>
   <si>
@@ -575,9 +566,6 @@
     <t>EMBRAPA AGRICULTURA DIGITAL – Campinas/SP; EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA SEDE – Brasília/DF; EMBRAPA TERRITORIAL – Campinas/SP</t>
   </si>
   <si>
-    <t>Computação (Análise de Sistemas, Análise de Sistemas e Desenvolvimento de Internet, Ciência da Computação, Sistemas de Informação, Engenharia de Computação, Engenharia da Informação, Engenharia de Software, Engenharia de Sistemas, Engenharia de Redes, Informática, Tecnologia da Informação, Ciência de Dados); Análise de Sistemas e Tecnologias da Informação, Gestão da Tecnologia da Informação, Informática, Segurança da Informação, Sistema da Informação, Tecnologia da Informação, Sistemas de Bancos de Dados, Banco de Dados, Banco de Dados e Armazenamento Big Data, Ciência de Dados, Big Data, Gestão de Dados, Processamento de Dados, Sistemas de Banco de Dados, Desenvolvimento de Software; Computação e Informática.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) ciclo de vida do software; (b) metodologias ágeis de desenvolvimento de software; (c) qualidade e testes de software; (d) gestão de configuração e mudanças; (e) integração de software e entrega contínua; (f) métricas e estimativas de software; (g) usabilidade e experiência de usuário; (h) frameworks e padrões de arquitetura de software e serviços; (i) comunicação síncrona e assíncrona de sistemas distribuídos.</t>
   </si>
   <si>
@@ -587,9 +575,6 @@
     <t>Edição – Inglês/Português</t>
   </si>
   <si>
-    <t>Letras Inglês; Letras Português-Inglês; Letras Inglês (Tradução e Interpretação); Línguas Estrangeiras Aplicadas; Linguística.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo tradução inglês-português, versão português-inglês, revisão de textos em inglês e português, edição e preparo de textos em inglês e português, pesquisa e gestão terminológica, bem como atividades correlatas.</t>
   </si>
   <si>
@@ -602,9 +587,6 @@
     <t>EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM</t>
   </si>
   <si>
-    <t>Letras; Letras com habilitação em Português e Inglês; Letras-Tradução; Línguas Estrangeiras Aplicadas; Linguística.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo preparação, revisão e tradução de textos técnico-científicos (inglês-português e português-inglês); revisão ortográfica, gramatical, de pontuação, semântica e de sintaxe dos originais dos textos; formatação e organização textual, padronização normativa e gestão de referências.</t>
   </si>
   <si>
@@ -614,9 +596,6 @@
     <t>Gestão da Informação Arquivística</t>
   </si>
   <si>
-    <t>Arquivologia.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo gestão da informação arquivística, gestão documental, análise de dados de pesquisa e atividades correlacionadas.</t>
   </si>
   <si>
@@ -629,9 +608,6 @@
     <t>EMBRAPA SEDE – Brasília/DF; EMBRAPA MEIO-NORTE – Teresina/PI</t>
   </si>
   <si>
-    <t>Biblioteconomia.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo gestão da informação bibliográfica, científica, gestão de bibliotecas virtuais, análise de dados de pesquisa e atividades correlacionadas.</t>
   </si>
   <si>
@@ -644,9 +620,6 @@
     <t>Folha de Pagamento</t>
   </si>
   <si>
-    <t>Administração; Ciências Contábeis.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) rotinas de folha de pagamento, desempenhando atividades de análise, desenvolvimento e execução nas áreas; (b) cálculos de folha de pagamento envolvendo férias, 13º, descontos (faltas, afastamentos, judiciais), cálculos retroativos; (c) cálculos de verbas rescisórias; (d) apuração de encargos/tributos e impostos trabalhistas; (e) acompanhamento e análise da legislação trabalhista e aplicações; (f) elaboração de notas técnicas.</t>
   </si>
   <si>
@@ -659,9 +632,6 @@
     <t>EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA COCAIS – São Luís/MA; EMBRAPA PECUÁRIA SUDESTE – São Carlos/SP; EMBRAPA RONDÔNIA – Porto Velho/RO</t>
   </si>
   <si>
-    <t>Qualquer área de formação de nível superior.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) gestão funcional; (b) remuneração de pessoal; (c) benefícios.</t>
   </si>
   <si>
@@ -683,9 +653,6 @@
     <t>Saúde Ocupacional</t>
   </si>
   <si>
-    <t>Psicologia; Serviço Social.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) monitoramento e análise dos indicadores de saúde ocupacional; (b) elaboração de documentos técnicos; (c) promoção de treinamentos; (d) fiscalização do cumprimento das normas de saúde; (e) atuação preventiva e orientações para a melhoria da saúde ocupacional (psicossocial) dos empregados.</t>
   </si>
   <si>
@@ -698,9 +665,6 @@
     <t>EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA SEDE – Brasília/DF</t>
   </si>
   <si>
-    <t>Engenharia; Arquitetura (com especialização em Engenharia de Segurança do Trabalho).</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) monitoramento e análise dos indicadores de segurança e saúde do trabalho; (b) gerenciamento dos riscos ocupacionais; (c) análise de demandas de compras e o processo de distribuição orçamentária para aquisição de Equipamento de Proteção Individual (EPI); (d) avaliação do impacto de novos equipamentos, tecnologias e dinâmicas de trabalho sobre a segurança do trabalho.</t>
   </si>
   <si>
@@ -713,9 +677,6 @@
     <t>Articulação Político-Institucional Internacional</t>
   </si>
   <si>
-    <t>Administração Pública; Ciências Políticas; Relações Internacionais; Economia; Direito.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, envolvendo: elaboração, monitoramento e avaliação de estratégias corporativas e de atividades de articulação político-institucional internacional; e assessoramento para unidades da Sede e Unidades Descentralizadas em temas e agendas internacionais relacionados às áreas de atuação da Embrapa.</t>
   </si>
   <si>
@@ -725,9 +686,6 @@
     <t>Articulação Político-Institucional Nacional</t>
   </si>
   <si>
-    <t>Administração Pública; Ciências Políticas; Ciências Sociais – Ciências Políticas; Ciências Sociais – Políticas Públicas; Gestão Pública; Gestão de Políticas Públicas; Gestão Pública e Desenvolvimento Regional; Gestão Pública e Social; Relações Econômicas Internacionais; Relações Internacionais; Economia; Direito.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, envolvendo: estratégias corporativas e demais atividades de articulação político institucional e assessoramento às áreas de relações governamentais e institucionais.</t>
   </si>
   <si>
@@ -740,9 +698,6 @@
     <t>EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MILHO E SORGO – Sete Lagoas/MG</t>
   </si>
   <si>
-    <t>Engenharia Ambiental; Engenharia Agronômica; Engenharia de Produção; Administração.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, envolvendo: (a) proposta e implementação de programas, projetos, metodologias e ações que promovam a estratégia de governança corporativa e a sustentabilidade nas três dimensões (ambiental, social e econômica) na empresa; (b) definição e gestão de parâmetros/indicadores de avaliação e monitoramento.</t>
   </si>
   <si>
@@ -767,9 +722,6 @@
     <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA COCAIS – São Luís/MA; EMBRAPA MEIO AMBIENTE – Jaguariúna/SP; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
   </si>
   <si>
-    <t>Administração; Ciência da Informação; Economia; Ciências Contábeis; Gestão Pública; Ciência Política; Direito; Engenharia de Produção; Relações Internacionais.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, envolvendo: (a) inteligência estratégica; (b) planejamento estratégico; (c) governança e gestão em consonância com os princípios e políticas da administração pública.</t>
   </si>
   <si>
@@ -779,9 +731,6 @@
     <t>Inteligência e Planejamento Estratégico</t>
   </si>
   <si>
-    <t>Administração; Ciência da Informação; Economia; Ciências Contábeis; Gestão Pública.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, envolvendo: (a) estudos e técnicas de inteligência, com foco na identificação de tendências de mercado, análise de concorrentes e antecipação de mudanças no setor; (b) aplicação de conhecimentos de forecast para análises quantitativas de tendências de curto prazo e foresight para explorar cenários futuros.</t>
   </si>
   <si>
@@ -803,9 +752,6 @@
     <t>EMBRAPA AGROENERGIA – Brasília/DF; EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA SOJA – Sinop/MT</t>
   </si>
   <si>
-    <t>Agronomia; Agroecologia; Biotecnologia; Biologia; Engenharia Agrícola; Engenharia Ambiental; Engenharia Florestal; Engenharia de Produção; Ciências Ambientais; Ciências Biológicas; Ecologia; Engenharia de Bioprocessos.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, envolvendo: (a) interface entre pesquisa e experimentos de campo; (b) coordenação do trabalho de campo; (c) implantação do experimento; (d) coleta e análise estatística de dados.</t>
   </si>
   <si>
@@ -818,9 +764,6 @@
     <t>EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA GADO DE LEITE – Coronel Pacheco/MG; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
   </si>
   <si>
-    <t>Medicina Veterinária.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas nas áreas de campos experimentais, em especial no manejo de rebanho de bovinos e bubalinos, com foco no manejo sanitário e reprodutivo; sanidade animal; medicina veterinária preventiva; manejo reprodutivo; clínica e cirurgia veterinária.</t>
   </si>
   <si>
@@ -833,9 +776,6 @@
     <t>EMBRAPA CERRADOS – Planaltina/DF</t>
   </si>
   <si>
-    <t>Agronomia; Geografia; Física; Biologia; Ciências Biológicas.</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) realização de análises e experimentos específicos da área de biofísica ambiental com confiabilidade e rastreabilidade dos dados; (b) apoio à gestão do laboratório atendendo as demandas de relatórios, controle dos reagentes e suprimentos.</t>
   </si>
   <si>
@@ -846,9 +786,6 @@
   </si>
   <si>
     <t>EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA RORAIMA – Boa Vista/RR</t>
-  </si>
-  <si>
-    <t>Biologia; Farmácia; Biotecnologia; Ciências Biológicas; Agronomia.</t>
   </si>
   <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) biologia celular; (b) cultura de tecidos; (c) transformação (via agrobacterium e via biolística).</t>
@@ -1100,9 +1037,6 @@
     <t>EMBRAPA AGROBIOLOGIA; EMBRAPA AGROSSILVIPASTORIL; EMBRAPA CLIMA TEMPERADO; EMBRAPA GADO DE CORTE; EMBRAPA GADO DE LEITE; EMBRAPA PESCA E AQUICULTURA; EMBRAPA RORAIMA</t>
   </si>
   <si>
-    <t>Comunicação Social com habilitação em Jornalismo; ou em Jornalismo</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: produção de conteúdo jornalístico, informativo e de veículos de comunicação empresarial para os públicos externo e interno, o que inclui: (a) coletar informações para elaboração de notícias e reportagens escritas ou em formato audiovisual; (b) registrar, audiovisualmente, com fotografias e gravações, fatos ou assuntos de interesse jornalístico; (c) redigir e revisar textos jornalísticos e de caráter institucional com vistas à correção redacional e à adequação da linguagem; (d) coordenar a divulgação de conteúdos textuais e audiovisuais, de caráter jornalístico e institucional, por meios impressos e digitais; (e) dirigir e coordenar a produção de conteúdos audiovisuais; (f) assessoria de imprensa; (g) relacionamento com jornalistas e influenciadores; (h) orientação e preparação de fontes e porta-vozes; (i) gestão de serviços de clipping de notícias e de 'mailings'; (j) atividades relacionadas à governança e gestão da comunicação organizacional, científica, digital, mercadológica e para transferência de tecnologia; (k) planejamento estratégico, coordenação técnica, gerenciamento de contratos e coordenação de equipes encarregadas de executar todas estas atividades; (i) diagramação.</t>
   </si>
   <si>
@@ -1260,13 +1194,73 @@
   </si>
   <si>
     <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA ARROZ E FEIJÃO – Alegrete/RS; EMBRAPA ARROZ E FEIJÃO – Balsas/MA; EMBRAPA ARROZ E FEIJÃO – Sinop/MT; EMBRAPA COCAIS – Balsas/MA; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Ouro Preto d´Oeste/RO; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Vilhena/RO; EMBRAPA SOJA – Londrina/PR; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
+  </si>
+  <si>
+    <t>Biologia; Farmácia; Biotecnologia; Ciências Biológicas; Agronomia</t>
+  </si>
+  <si>
+    <t>Comunicação Social com habilitação em Jornalismo; Jornalismo</t>
+  </si>
+  <si>
+    <t>Engenharia Ambiental; Engenharia Agronômica; Engenharia de Produção; Administração</t>
+  </si>
+  <si>
+    <t>Qualquer área de formação de nível superior</t>
+  </si>
+  <si>
+    <t>Psicologia; Serviço Social</t>
+  </si>
+  <si>
+    <t>Engenharia; Arquitetura (com especialização em Engenharia de Segurança do Trabalho)</t>
+  </si>
+  <si>
+    <t>Administração Pública; Ciências Políticas; Relações Internacionais; Economia; Direito</t>
+  </si>
+  <si>
+    <t>Administração Pública; Ciências Políticas; Ciências Sociais – Ciências Políticas; Ciências Sociais – Políticas Públicas; Gestão Pública; Gestão de Políticas Públicas; Gestão Pública e Desenvolvimento Regional; Gestão Pública e Social; Relações Econômicas Internacionais; Relações Internacionais; Economia; Direito</t>
+  </si>
+  <si>
+    <t>Administração; Ciência da Informação; Economia; Ciências Contábeis; Gestão Pública</t>
+  </si>
+  <si>
+    <t>Agronomia; Agroecologia; Biotecnologia; Biologia; Engenharia Agrícola; Engenharia Ambiental; Engenharia Florestal; Engenharia de Produção; Ciências Ambientais; Ciências Biológicas; Ecologia; Engenharia de Bioprocessos</t>
+  </si>
+  <si>
+    <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Software; Informática; Tecnologia da Informação; Ciência de Dados; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informátic; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data, Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Computação; Informática</t>
+  </si>
+  <si>
+    <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Sistemas; Engenharia de Redes; Informática; Tecnologia da Informação; Ciência de Dados; Engenharia Elétrica; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informática; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data; Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Computação Informática</t>
+  </si>
+  <si>
+    <t>Letras Inglês; Letras Português-Inglês; Letras Inglês (Tradução e Interpretação); Línguas Estrangeiras Aplicadas; Linguística</t>
+  </si>
+  <si>
+    <t>Letras; Letras com habilitação em Português e Inglês; Letras-Tradução; Línguas Estrangeiras Aplicadas; Linguística</t>
+  </si>
+  <si>
+    <t>Arquivologia</t>
+  </si>
+  <si>
+    <t>Biblioteconomia</t>
+  </si>
+  <si>
+    <t>Administração; Ciências Contábeis</t>
+  </si>
+  <si>
+    <t>Administração; Ciência da Informação; Economia; Ciências Contábeis; Gestão Pública; Ciência Política; Direito; Engenharia de Produção; Relações Internacionais</t>
+  </si>
+  <si>
+    <t>Agronomia; Geografia; Física; Biologia; Ciências Biológicas</t>
+  </si>
+  <si>
+    <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Software; Engenharia de Sistemas; Engenharia de Redes; Informática; Tecnologia da Informação; Ciência de Dados; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informática; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data; Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Desenvolvimento de Software; Computação; Informática</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1275,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1318,10 +1318,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,97 +1662,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D87334-E1F4-40A5-B022-6F892144E1C2}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>40002042</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1764,132 +1770,132 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1904,68 +1910,68 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1974,68 +1980,68 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2044,62 +2050,62 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
         <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>52</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>53</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -2114,62 +2120,62 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
         <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>62</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>63</v>
-      </c>
-      <c r="K14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -2184,33 +2190,33 @@
         <v>19</v>
       </c>
       <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
         <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2219,62 +2225,62 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
         <v>72</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2289,33 +2295,33 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
         <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2324,68 +2330,68 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
         <v>91</v>
       </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>92</v>
-      </c>
-      <c r="K20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2394,97 +2400,97 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s">
         <v>97</v>
-      </c>
-      <c r="K21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
         <v>99</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
         <v>101</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>106</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>110</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2499,33 +2505,33 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" t="s">
         <v>111</v>
-      </c>
-      <c r="K24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2534,33 +2540,33 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>120</v>
-      </c>
-      <c r="E26" t="s">
-        <v>121</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2569,27 +2575,27 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>125</v>
-      </c>
-      <c r="E27" t="s">
-        <v>126</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -2604,33 +2610,33 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
         <v>127</v>
-      </c>
-      <c r="K27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>130</v>
       </c>
-      <c r="E28" t="s">
-        <v>131</v>
-      </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2639,33 +2645,33 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s">
         <v>132</v>
-      </c>
-      <c r="K28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
         <v>134</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>135</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2674,27 +2680,27 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" t="s">
         <v>137</v>
-      </c>
-      <c r="K29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>139</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>140</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>141</v>
-      </c>
-      <c r="E30" t="s">
-        <v>142</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2709,103 +2715,103 @@
         <v>9</v>
       </c>
       <c r="J30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" t="s">
         <v>143</v>
-      </c>
-      <c r="K30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>145</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>146</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>147</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>148</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>149</v>
-      </c>
-      <c r="K31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
         <v>151</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>152</v>
       </c>
-      <c r="E32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>153</v>
-      </c>
-      <c r="K32" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>156</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>158</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2814,68 +2820,68 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" t="s">
         <v>159</v>
-      </c>
-      <c r="K33" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
         <v>161</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>162</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
         <v>163</v>
       </c>
-      <c r="E34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>164</v>
-      </c>
-      <c r="K34" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
         <v>166</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>168</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2884,27 +2890,27 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="K35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
         <v>171</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" t="s">
-        <v>173</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2919,27 +2925,27 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="K36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2953,139 +2959,139 @@
       <c r="I37">
         <v>5</v>
       </c>
-      <c r="J37" t="s">
-        <v>179</v>
+      <c r="J37" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="K37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>183</v>
+        <v>397</v>
       </c>
       <c r="K38" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
+        <v>398</v>
       </c>
       <c r="K39" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3094,33 +3100,33 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="K41" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3129,27 +3135,27 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -3164,27 +3170,27 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
         <v>200</v>
       </c>
-      <c r="D44" t="s">
-        <v>210</v>
-      </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -3199,68 +3205,68 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>207</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>215</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -3269,103 +3275,103 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="K47" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3374,62 +3380,62 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" t="s">
         <v>223</v>
       </c>
-      <c r="D50" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" t="s">
-        <v>238</v>
-      </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>207</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -3444,45 +3450,45 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>243</v>
+        <v>402</v>
       </c>
       <c r="K51" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="K52" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3490,22 +3496,22 @@
         <v>40000202</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3514,27 +3520,27 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -3549,33 +3555,33 @@
         <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="K54" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3584,68 +3590,68 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="K56" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3654,27 +3660,27 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>270</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
         <v>252</v>
       </c>
-      <c r="D58" t="s">
-        <v>273</v>
-      </c>
       <c r="E58" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -3689,10 +3695,10 @@
         <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="K58" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3700,16 +3706,16 @@
         <v>40001181</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -3724,62 +3730,62 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="K59" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K60" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3794,33 +3800,33 @@
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="K61" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D62" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -3829,33 +3835,33 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="K62" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E63" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3864,27 +3870,27 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K63" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D64" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -3899,33 +3905,33 @@
         <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="K64" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E65" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3934,27 +3940,27 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="K65" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="F66">
         <v>38</v>
@@ -3969,132 +3975,132 @@
         <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="K66" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D67" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I67">
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="K67" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="K68" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="K69" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -4109,62 +4115,62 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="K70" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E71" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="K71" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E72" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -4179,27 +4185,27 @@
         <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="K72" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D73" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E73" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -4214,27 +4220,27 @@
         <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="K73" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E74" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F74">
         <v>5</v>
@@ -4249,27 +4255,27 @@
         <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="K74" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E75" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -4284,27 +4290,27 @@
         <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="K75" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76" t="s">
         <v>340</v>
-      </c>
-      <c r="D76" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" t="s">
-        <v>362</v>
       </c>
       <c r="F76">
         <v>3</v>
@@ -4319,27 +4325,27 @@
         <v>5</v>
       </c>
       <c r="J76" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="K76" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" t="s">
         <v>340</v>
-      </c>
-      <c r="D77" t="s">
-        <v>365</v>
-      </c>
-      <c r="E77" t="s">
-        <v>362</v>
       </c>
       <c r="F77">
         <v>7</v>
@@ -4354,27 +4360,27 @@
         <v>10</v>
       </c>
       <c r="J77" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="K77" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D78" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="E78" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F78">
         <v>22</v>
@@ -4389,33 +4395,33 @@
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="K78" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -4424,27 +4430,27 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="K79" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D80" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E80" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -4459,62 +4465,62 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="K80" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D81" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="K81" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="E82" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -4529,10 +4535,10 @@
         <v>10</v>
       </c>
       <c r="J82" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="K82" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Analista.xlsx
+++ b/Analista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13040336-7ED8-4402-9219-ACC01D0A2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA66DE76-48A5-4E55-9C72-70529CB69209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F056FF6-400D-441B-B887-90AFAEFC191F}"/>
   </bookViews>
@@ -1226,9 +1226,6 @@
     <t>Agronomia; Agroecologia; Biotecnologia; Biologia; Engenharia Agrícola; Engenharia Ambiental; Engenharia Florestal; Engenharia de Produção; Ciências Ambientais; Ciências Biológicas; Ecologia; Engenharia de Bioprocessos</t>
   </si>
   <si>
-    <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Software; Informática; Tecnologia da Informação; Ciência de Dados; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informátic; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data, Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Computação; Informática</t>
-  </si>
-  <si>
     <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Sistemas; Engenharia de Redes; Informática; Tecnologia da Informação; Ciência de Dados; Engenharia Elétrica; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informática; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data; Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Computação Informática</t>
   </si>
   <si>
@@ -1254,6 +1251,9 @@
   </si>
   <si>
     <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Software; Engenharia de Sistemas; Engenharia de Redes; Informática; Tecnologia da Informação; Ciência de Dados; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informática; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data; Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Desenvolvimento de Software; Computação; Informática</t>
+  </si>
+  <si>
+    <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Software; Informática; Tecnologia da Informação; Ciência de Dados; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informátic; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data; Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Computação; Informática</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D87334-E1F4-40A5-B022-6F892144E1C2}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K35" t="s">
         <v>168</v>
@@ -2925,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K36" t="s">
         <v>172</v>
@@ -2960,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K37" t="s">
         <v>176</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K38" t="s">
         <v>179</v>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s">
         <v>183</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s">
         <v>186</v>
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K41" t="s">
         <v>190</v>
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K42" t="s">
         <v>194</v>
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s">
         <v>228</v>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K56" t="s">
         <v>246</v>

--- a/Analista.xlsx
+++ b/Analista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA66DE76-48A5-4E55-9C72-70529CB69209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBB963-A0DC-4F19-B9D9-FB8DB1D3DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F056FF6-400D-441B-B887-90AFAEFC191F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="406">
   <si>
     <t>Analista</t>
   </si>
@@ -551,9 +551,6 @@
     <t>Engenharia de Infraestrutura e Tecnologia da Informação</t>
   </si>
   <si>
-    <t>EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA ALGODÃO – Campina Grande/PB; EMBRAPA ALIMENTOS E TERRITÓRIOS – Maceió/AL; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA SOLOS – Recife</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) identificação, análise, mitigação e tratamento de vulnerabilidades em sistemas computacionais e redes de computadores; (b) planejamento, execução e análise de avaliações de segurança e testes de penetração em ambientes computacionais; (c) coordenação e gerenciamento de projetos de infraestrutura de TI e segurança cibernética, incluindo a gestão, execução e fiscalização de processos de aquisição e gerenciamento de contratos de bens e de serviços relacionadas a esses temas; (d) aplicação e adoção de práticas de governança, gerenciamento de serviços e riscos em TI e segurança cibernética.</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
   </si>
   <si>
     <t>Gestão da Qualidade Laboratorial</t>
-  </si>
-  <si>
-    <t>EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA MEIO AMBIENTE – Jaguariúna/SP; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA RONDÔNIA – Porto Velho/RO</t>
   </si>
   <si>
     <t>Administração; Ciência e Tecnologia de Alimentos; Engenharia de Alimentos; Engenharia de Produção; Química; Farmácia; Ciências Biológicas; Biologia; Bioquímica; Engenharia Bioquímica</t>
@@ -917,9 +911,6 @@
     <t>Administrativo, Suprimento, Manutenção e Serviços</t>
   </si>
   <si>
-    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROINDÚSTRIA DE ALIMENTOS – Rio de Janeiro/RJ; EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA ALIMENTOS E TERRITÓRIOS – Maceió/AL; EMBRAPA AMAPÁ – Macapá/AP; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – Balsas/MA; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA INSTRUMENTAÇÃO – São Carlos/SP; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO AMBIENTE – Jaguariúna/SP; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA RORAIMA – Boa Vista/RR; EMBRAPA SOJA – Londrina/PR; EMBRAPA SUÍNOS E AVES – Concórdia/SC; EMBRAPA TRIGO – Passo Fundo/RS; EMBRAPA TERRITORIAL – Campinas/SP; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: (a) gestão administrativa; (b) comércio exterior; (c) gestão de compras; (d) gestão e fiscalização de contratos; (e) gestão de convênios; (f) gestão de patrimônio; (g) gestão de ativos imobiliários; (h) gestão de estoques; (i) gestão de pessoas; (j) gestão de orçamento e finanças.</t>
   </si>
   <si>
@@ -1034,9 +1025,6 @@
     <t>Jornalismo</t>
   </si>
   <si>
-    <t>EMBRAPA AGROBIOLOGIA; EMBRAPA AGROSSILVIPASTORIL; EMBRAPA CLIMA TEMPERADO; EMBRAPA GADO DE CORTE; EMBRAPA GADO DE LEITE; EMBRAPA PESCA E AQUICULTURA; EMBRAPA RORAIMA</t>
-  </si>
-  <si>
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e desenvolvimento, envolvendo: produção de conteúdo jornalístico, informativo e de veículos de comunicação empresarial para os públicos externo e interno, o que inclui: (a) coletar informações para elaboração de notícias e reportagens escritas ou em formato audiovisual; (b) registrar, audiovisualmente, com fotografias e gravações, fatos ou assuntos de interesse jornalístico; (c) redigir e revisar textos jornalísticos e de caráter institucional com vistas à correção redacional e à adequação da linguagem; (d) coordenar a divulgação de conteúdos textuais e audiovisuais, de caráter jornalístico e institucional, por meios impressos e digitais; (e) dirigir e coordenar a produção de conteúdos audiovisuais; (f) assessoria de imprensa; (g) relacionamento com jornalistas e influenciadores; (h) orientação e preparação de fontes e porta-vozes; (i) gestão de serviços de clipping de notícias e de 'mailings'; (j) atividades relacionadas à governança e gestão da comunicação organizacional, científica, digital, mercadológica e para transferência de tecnologia; (k) planejamento estratégico, coordenação técnica, gerenciamento de contratos e coordenação de equipes encarregadas de executar todas estas atividades; (i) diagramação.</t>
   </si>
   <si>
@@ -1115,9 +1103,6 @@
     <t>Inovação Social</t>
   </si>
   <si>
-    <t>EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROPECUÁRIA OESTE – Dourados/MS; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA CLIMA TEMPERADO – Francisco Beltrão/RS; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
-  </si>
-  <si>
     <t>Ciências Sociais; Ciências Sociais – Antropologia; Ciências Sociais – Sociologia; Antropologia; Sociologia; Ecologia; Gestão Ambiental; História; Geografia; Psicologia; Pedagogia; Economia; Ciência Política; Agroecologia</t>
   </si>
   <si>
@@ -1193,9 +1178,6 @@
     <t>Administrar, analisar, executar e orientar atividades técnicas em processos, projetos e subprojetos de suporte à pesquisa e ao desenvolvimento, nas áreas de nutrição de organismos aquáticos envolvendo: (a) análises de alimentos, processamento de alimentos e fabricação de rações experimentais; (b) apoio à gestão da infraestrutura de pesquisa, zelando pela guarda, conservação, manutenção e limpeza dos equipamentos, instrumentos e materiais utilizados, bem como do local de trabalho; (c) tratamento e descarte de resíduos de materiais provenientes do laboratório.</t>
   </si>
   <si>
-    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA ARROZ E FEIJÃO – Alegrete/RS; EMBRAPA ARROZ E FEIJÃO – Balsas/MA; EMBRAPA ARROZ E FEIJÃO – Sinop/MT; EMBRAPA COCAIS – Balsas/MA; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Ouro Preto d´Oeste/RO; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Vilhena/RO; EMBRAPA SOJA – Londrina/PR; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
-  </si>
-  <si>
     <t>Biologia; Farmácia; Biotecnologia; Ciências Biológicas; Agronomia</t>
   </si>
   <si>
@@ -1254,6 +1236,27 @@
   </si>
   <si>
     <t>Análise de Sistemas; Análise de Sistemas e Desenvolvimento de Internet; Ciência da Computação; Sistemas de Informação; Engenharia de Computação; Engenharia da Informação; Engenharia de Software; Informática; Tecnologia da Informação; Ciência de Dados; Análise de Sistemas e Tecnologias da Informação; Gestão da Tecnologia da Informação; Informátic; Segurança da Informação; Sistema da Informação; Tecnologia da Informação; Sistemas de Bancos de Dados; Banco de Dados; Banco de Dados e Armazenamento Big Data; Ciência de Dados; Big Data; Gestão de Dados; Processamento de Dados; Sistemas de Banco de Dados; Computação; Informática</t>
+  </si>
+  <si>
+    <t>EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROPECUÁRIA OESTE – Dourados/MS; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA CLIMA TEMPERADO – Francisco Beltrão/PR; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
+  </si>
+  <si>
+    <t>EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA SEDE – Brasília/DF; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MEIO-NORTE – TERESINA/PI; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF EMBRAPA; RONDÔNIA – Porto Velho/RO; EMBRAPA SOLOS – Rio de Janeiro/RJ; EMBRAPA TABULEIROS COSTEIROS – Aracaju/SE;</t>
+  </si>
+  <si>
+    <t>EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA GADO DE CORTE – Campo Grande/MS; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RORAIMA – Boa Vista/RR</t>
+  </si>
+  <si>
+    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROINDÚSTRIA DE ALIMENTOS – Rio de Janeiro/RJ; EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA ALIMENTOS E TERRITÓRIOS – Maceió/AL; EMBRAPA AMAPÁ – Macapá/AP; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Itacoatiara/AM; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – Balsas/MA; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA INSTRUMENTAÇÃO – São Carlos/SP; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO AMBIENTE – Jaguariúna/SP; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA RORAIMA – Boa Vista/RR; EMBRAPA SOJA – Londrina/PR; EMBRAPA SUÍNOS E AVES – Concórdia/SC; EMBRAPA TRIGO – Passo Fundo/RS; EMBRAPA TERRITORIAL – Campinas/SP; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
+  </si>
+  <si>
+    <t>EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA MEIO AMBIENTE – Jaguariúna/SP; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RORAIMA – Boa Vista/RR</t>
+  </si>
+  <si>
+    <t>EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA ALGODÃO – Campina Grande/PB; EMBRAPA ALIMENTOS E TERRITÓRIOS – Maceió/AL; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA SEDE – Brasília/DF; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA SOLOS – Recife/PE</t>
+  </si>
+  <si>
+    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA ARROZ E FEIJÃO – Alegrete/RS; EMBRAPA ARROZ E FEIJÃO – Balsas/MA; EMBRAPA ARROZ E FEIJÃO – Sinop/MT; EMBRAPA COCAIS – Balsas/MA; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Ouro Preto do Oeste/RO; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Vilhena/RO; EMBRAPA SOJA – Londrina/PR; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
   </si>
 </sst>
 </file>
@@ -1318,13 +1321,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,48 +1668,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D87334-E1F4-40A5-B022-6F892144E1C2}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E82" sqref="E2:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1773,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1808,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2175,7 +2182,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -2890,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K35" t="s">
         <v>168</v>
@@ -2910,7 +2917,7 @@
         <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2925,15 +2932,15 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -2942,10 +2949,10 @@
         <v>161</v>
       </c>
       <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
         <v>174</v>
-      </c>
-      <c r="E37" t="s">
-        <v>175</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2960,15 +2967,15 @@
         <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -2977,7 +2984,7 @@
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
         <v>147</v>
@@ -2995,15 +3002,15 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3012,33 +3019,33 @@
         <v>161</v>
       </c>
       <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" t="s">
         <v>181</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>391</v>
+      </c>
+      <c r="K39" t="s">
         <v>182</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>397</v>
-      </c>
-      <c r="K39" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3047,7 +3054,7 @@
         <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
         <v>147</v>
@@ -3065,15 +3072,15 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3082,10 +3089,10 @@
         <v>161</v>
       </c>
       <c r="D41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" t="s">
         <v>188</v>
-      </c>
-      <c r="E41" t="s">
-        <v>189</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3100,24 +3107,24 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>191</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>192</v>
-      </c>
-      <c r="D42" t="s">
-        <v>193</v>
       </c>
       <c r="E42" t="s">
         <v>147</v>
@@ -3135,27 +3142,27 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
         <v>195</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>196</v>
-      </c>
-      <c r="E43" t="s">
-        <v>197</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -3170,27 +3177,27 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
         <v>199</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>200</v>
-      </c>
-      <c r="E44" t="s">
-        <v>201</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -3205,24 +3212,24 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
         <v>203</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" t="s">
-        <v>204</v>
       </c>
       <c r="E45" t="s">
         <v>147</v>
@@ -3240,27 +3247,27 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
         <v>206</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>207</v>
-      </c>
-      <c r="E46" t="s">
-        <v>208</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3275,24 +3282,24 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>210</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>211</v>
-      </c>
-      <c r="D47" t="s">
-        <v>212</v>
       </c>
       <c r="E47" t="s">
         <v>147</v>
@@ -3310,24 +3317,24 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" t="s">
         <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" t="s">
-        <v>215</v>
       </c>
       <c r="E48" t="s">
         <v>147</v>
@@ -3345,27 +3352,27 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" t="s">
         <v>217</v>
       </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>218</v>
-      </c>
-      <c r="E49" t="s">
-        <v>219</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3380,62 +3387,62 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" t="s">
         <v>221</v>
       </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>222</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s">
         <v>223</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>388</v>
-      </c>
-      <c r="K50" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" t="s">
         <v>225</v>
       </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>226</v>
-      </c>
-      <c r="E51" t="s">
-        <v>227</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -3450,24 +3457,24 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" t="s">
         <v>229</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>211</v>
-      </c>
-      <c r="D52" t="s">
-        <v>230</v>
       </c>
       <c r="E52" t="s">
         <v>147</v>
@@ -3485,10 +3492,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3499,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3520,27 +3527,27 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
         <v>234</v>
       </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>235</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>236</v>
-      </c>
-      <c r="E54" t="s">
-        <v>237</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -3555,27 +3562,27 @@
         <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" t="s">
         <v>239</v>
       </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>240</v>
-      </c>
-      <c r="E55" t="s">
-        <v>241</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -3593,59 +3600,59 @@
         <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" t="s">
         <v>243</v>
       </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>244</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>396</v>
+      </c>
+      <c r="K56" t="s">
         <v>245</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>402</v>
-      </c>
-      <c r="K56" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" t="s">
         <v>247</v>
       </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>248</v>
-      </c>
-      <c r="E57" t="s">
-        <v>249</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3660,27 +3667,27 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
         <v>251</v>
       </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" t="s">
-        <v>252</v>
-      </c>
       <c r="E58" t="s">
-        <v>253</v>
+        <v>403</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -3695,10 +3702,10 @@
         <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -3730,62 +3737,62 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
         <v>260</v>
       </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="K60" t="s">
         <v>261</v>
-      </c>
-      <c r="E60" t="s">
-        <v>245</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>262</v>
-      </c>
-      <c r="K60" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
         <v>264</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" t="s">
-        <v>265</v>
-      </c>
-      <c r="E61" t="s">
-        <v>266</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3800,27 +3807,27 @@
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" t="s">
         <v>269</v>
       </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>270</v>
-      </c>
-      <c r="D62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" t="s">
-        <v>272</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -3835,27 +3842,27 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" t="s">
         <v>275</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" t="s">
-        <v>276</v>
-      </c>
-      <c r="E63" t="s">
-        <v>277</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3870,27 +3877,27 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" t="s">
         <v>280</v>
       </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>281</v>
-      </c>
-      <c r="D64" t="s">
-        <v>282</v>
-      </c>
-      <c r="E64" t="s">
-        <v>283</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -3905,27 +3912,27 @@
         <v>13</v>
       </c>
       <c r="J64" t="s">
+        <v>280</v>
+      </c>
+      <c r="K64" t="s">
         <v>282</v>
-      </c>
-      <c r="K64" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3940,27 +3947,27 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" t="s">
         <v>289</v>
       </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>290</v>
-      </c>
-      <c r="D66" t="s">
-        <v>291</v>
-      </c>
       <c r="E66" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="F66">
         <v>38</v>
@@ -3975,27 +3982,27 @@
         <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K66" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -4010,59 +4017,59 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
         <v>299</v>
       </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>290</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="K68" t="s">
         <v>300</v>
-      </c>
-      <c r="E68" t="s">
-        <v>301</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>302</v>
-      </c>
-      <c r="K68" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E69" t="s">
         <v>147</v>
@@ -4080,27 +4087,27 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K69" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -4115,62 +4122,62 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K70" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" t="s">
+        <v>311</v>
+      </c>
+      <c r="E71" t="s">
+        <v>312</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
         <v>313</v>
       </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="K71" t="s">
         <v>314</v>
-      </c>
-      <c r="E71" t="s">
-        <v>315</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>316</v>
-      </c>
-      <c r="K71" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>316</v>
+      </c>
+      <c r="D72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" t="s">
         <v>318</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>319</v>
-      </c>
-      <c r="D72" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" t="s">
-        <v>321</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -4185,27 +4192,27 @@
         <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D73" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -4220,27 +4227,27 @@
         <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K73" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E74" t="s">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="F74">
         <v>5</v>
@@ -4255,27 +4262,27 @@
         <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K74" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E75" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -4290,27 +4297,27 @@
         <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K75" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E76" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F76">
         <v>3</v>
@@ -4325,27 +4332,27 @@
         <v>5</v>
       </c>
       <c r="J76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K76" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>343</v>
-      </c>
-      <c r="E77" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="F77">
         <v>7</v>
@@ -4360,27 +4367,27 @@
         <v>10</v>
       </c>
       <c r="J77" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D78" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E78" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F78">
         <v>22</v>
@@ -4395,27 +4402,27 @@
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K78" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E79" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -4430,27 +4437,27 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K79" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E80" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -4465,24 +4472,24 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K80" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -4500,27 +4507,27 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K81" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E82" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -4535,10 +4542,10 @@
         <v>10</v>
       </c>
       <c r="J82" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K82" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
